--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\ASM2_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2CBAF-6648-4208-8C2A-607188E13449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED67E0AF-3974-47EB-BBA2-3BDBF68C1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE495125-09D0-45DB-A08E-53AB554A4D8F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Product ID</t>
   </si>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B8C8AC-4A52-44E3-9DCB-66900E2DD0E8}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,122 +768,162 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>350</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>600</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
+        <v>350</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>1015</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>1200</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>800</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\ASM2_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED67E0AF-3974-47EB-BBA2-3BDBF68C1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E2CD5-5BE3-4459-B743-7630347322DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE495125-09D0-45DB-A08E-53AB554A4D8F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Product ID</t>
   </si>
@@ -55,115 +55,124 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Wireless Headphones</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Smart Refrigerator</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Robotic Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>Soundbar</t>
+  </si>
+  <si>
+    <t>Laser Printer</t>
+  </si>
+  <si>
+    <t>30&amp;</t>
+  </si>
+  <si>
+    <t>Appliances*(</t>
+  </si>
+  <si>
+    <t>App&amp;liances</t>
+  </si>
+  <si>
+    <t>20/</t>
+  </si>
+  <si>
+    <t>Split Air/.Conditioner</t>
+  </si>
+  <si>
+    <t>500*</t>
+  </si>
+  <si>
+    <t>Electronics":</t>
+  </si>
+  <si>
+    <t>Air Frye R</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>CordlessVacuumCleaner</t>
+  </si>
+  <si>
     <t>Gaming Laptop</t>
   </si>
   <si>
-    <t>XYZ Electronics</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>ABC Electronics</t>
-  </si>
-  <si>
-    <t>Wireless Headphones</t>
-  </si>
-  <si>
-    <t>PQR Electronics</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>XYZ Mobile</t>
-  </si>
-  <si>
-    <t>Smart Refrigerator</t>
-  </si>
-  <si>
-    <t>PQR Appliances</t>
-  </si>
-  <si>
-    <t>Appliances</t>
-  </si>
-  <si>
-    <t>Air Fryer</t>
-  </si>
-  <si>
-    <t>ABC Appliances</t>
-  </si>
-  <si>
-    <t>Robotic Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>Soundbar</t>
-  </si>
-  <si>
-    <t>DSLR Camera</t>
-  </si>
-  <si>
-    <t>ABC Cameras</t>
-  </si>
-  <si>
-    <t>Portable Bluetooth Speaker</t>
-  </si>
-  <si>
-    <t>Blender</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Cordless Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>Laser Printer</t>
-  </si>
-  <si>
-    <t>30&amp;</t>
-  </si>
-  <si>
-    <t>800-</t>
-  </si>
-  <si>
-    <t>PQR Applianc</t>
-  </si>
-  <si>
-    <t>Appliances*(</t>
-  </si>
-  <si>
-    <t>App&amp;liances</t>
-  </si>
-  <si>
-    <t>20/</t>
-  </si>
-  <si>
-    <t>Split Air/.Conditioner</t>
-  </si>
-  <si>
-    <t>Smart TV*^</t>
-  </si>
-  <si>
-    <t>PQR(^% Appliances</t>
-  </si>
-  <si>
-    <t>XYZ '{}Printers</t>
-  </si>
-  <si>
-    <t>500*</t>
-  </si>
-  <si>
-    <t>XYZ Mo}bi/le</t>
-  </si>
-  <si>
-    <t>Electronics":</t>
-  </si>
-  <si>
-    <t>2+0_0-0\</t>
-  </si>
-  <si>
-    <t>PQR App}:liances</t>
+    <t>abc Electronics</t>
+  </si>
+  <si>
+    <t>X Mobile</t>
+  </si>
+  <si>
+    <t>Pr(^% Appliances</t>
+  </si>
+  <si>
+    <t>ab Appliances</t>
+  </si>
+  <si>
+    <t>Y Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cameras</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mo}bi/le</t>
+  </si>
+  <si>
+    <t>P App}:liances</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '{}Printers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applianc</t>
+  </si>
+  <si>
+    <t>Pr Applia Nces</t>
+  </si>
+  <si>
+    <t>Smart tv*^</t>
+  </si>
+  <si>
+    <t>dslr Camera</t>
+  </si>
+  <si>
+    <t>C&amp; Appli Ances</t>
+  </si>
+  <si>
+    <t>pqr Electronics</t>
+  </si>
+  <si>
+    <t>800*</t>
+  </si>
+  <si>
+    <t>xyz Electronics</t>
+  </si>
+  <si>
+    <t>Blend Er</t>
+  </si>
+  <si>
+    <t>Portable Bluetooth Spea ker</t>
+  </si>
+  <si>
+    <t>2+0((00\</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +245,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +573,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,363 +585,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>250</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>600</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>350</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
         <v>1200</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>800</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C18" s="1">
         <v>300</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D18" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>150</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>400</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>250</v>
-      </c>
-      <c r="D9" s="2">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>350</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>600</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>800</v>
-      </c>
-      <c r="D18" s="2">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
